--- a/Calibration Data.xlsx
+++ b/Calibration Data.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorgatlin/Desktop/DataCollection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Allegion\Allegion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Actual Force</t>
   </si>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>Conductance</t>
+  </si>
+  <si>
+    <t>New Calibration</t>
   </si>
 </sst>
 </file>
@@ -86,6 +86,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -105,7 +108,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4025136446985223"/>
+          <c:y val="2.8202115158636899E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -182,8 +192,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0265223097112861"/>
-                  <c:y val="-0.0320997375328084"/>
+                  <c:x val="-2.65223097112861E-2"/>
+                  <c:y val="-3.2099737532808398E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -223,28 +233,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0E-6</c:v>
+                  <c:v>5.0000000000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00027114967462039</c:v>
+                  <c:v>2.7114967462039046E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.7777777777777779E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0062111801242236</c:v>
+                  <c:v>6.2111801242236021E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00847457627118644</c:v>
+                  <c:v>8.4745762711864406E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0104166666666667</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0121951219512195</c:v>
+                  <c:v>1.2195121951219513E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0135135135135135</c:v>
+                  <c:v>1.3513513513513514E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,13 +266,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.94</c:v>
+                  <c:v>5.9399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.94</c:v>
@@ -271,13 +281,13 @@
                   <c:v>15.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.94</c:v>
+                  <c:v>20.939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.94</c:v>
+                  <c:v>25.939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.94</c:v>
+                  <c:v>30.939999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,11 +302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1741880816"/>
-        <c:axId val="1707052800"/>
+        <c:axId val="196479288"/>
+        <c:axId val="196476544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1741880816"/>
+        <c:axId val="196479288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,6 +382,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -408,12 +419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1707052800"/>
+        <c:crossAx val="196476544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1707052800"/>
+        <c:axId val="196476544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,6 +500,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -525,7 +537,548 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1741880816"/>
+        <c:crossAx val="196479288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11914457567804025"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4889643463497452E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5105999097880024E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1073205401563618E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4117647058823521E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1536686663590217E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3410218586562963E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5767896562598548E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7427675148135237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9062142584826535E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0354162426216162E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2070183182520412E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3212627669452184E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4557956777996073E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5647601949217745E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6932399676811204E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8026905829596414E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456376344"/>
+        <c:axId val="456375952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456376344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456375952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456375952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force (lb)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456376344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -614,6 +1167,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1130,20 +1723,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1157,6 +2266,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1428,21 +2567,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1471,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1479,14 +2618,14 @@
         <v>3688</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">1/B3</f>
+        <f>1/B3</f>
         <v>2.7114967462039046E-4</v>
       </c>
       <c r="D3">
         <v>0.94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -1494,7 +2633,7 @@
         <v>360</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C9" si="0">1/B4</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="D4">
@@ -1502,7 +2641,7 @@
         <v>5.9399999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.91</v>
       </c>
@@ -1518,7 +2657,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -1534,7 +2673,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5499999999999998</v>
       </c>
@@ -1550,7 +2689,7 @@
         <v>20.939999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.75</v>
       </c>
@@ -1566,7 +2705,7 @@
         <v>25.939999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.86</v>
       </c>
@@ -1580,6 +2719,295 @@
       <c r="D9">
         <f t="shared" si="1"/>
         <v>30.939999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>200000</v>
+      </c>
+      <c r="C14">
+        <f>1/B14</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.4</v>
+      </c>
+      <c r="B15">
+        <v>1178</v>
+      </c>
+      <c r="C15">
+        <f>1/B15</f>
+        <v>8.4889643463497452E-4</v>
+      </c>
+      <c r="D15">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.55</v>
+      </c>
+      <c r="B16">
+        <v>221.7</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C21" si="2">1/B16</f>
+        <v>4.5105999097880024E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D30" si="3">D15+5</f>
+        <v>5.9399999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.06</v>
+      </c>
+      <c r="B17">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>7.1073205401563618E-3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="B18">
+        <v>106.25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>9.4117647058823521E-3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.67</v>
+      </c>
+      <c r="B19">
+        <v>86.68</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>1.1536686663590217E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>20.939999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.85</v>
+      </c>
+      <c r="B20">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>1.3410218586562963E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>25.939999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.04</v>
+      </c>
+      <c r="B21">
+        <v>63.42</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>1.5767896562598548E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>30.939999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.17</v>
+      </c>
+      <c r="B22">
+        <v>57.38</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C25" si="4">1/B22</f>
+        <v>1.7427675148135237E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.28</v>
+      </c>
+      <c r="B23">
+        <v>52.46</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>1.9062142584826535E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.35</v>
+      </c>
+      <c r="B24">
+        <v>49.13</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>2.0354162426216162E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>45.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3.44</v>
+      </c>
+      <c r="B25">
+        <v>45.31</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>2.2070183182520412E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>50.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.49</v>
+      </c>
+      <c r="B26">
+        <v>43.08</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C27" si="5">1/B26</f>
+        <v>2.3212627669452184E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>55.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.55</v>
+      </c>
+      <c r="B27">
+        <v>40.72</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>2.4557956777996073E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>60.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.62</v>
+      </c>
+      <c r="B28">
+        <v>38.99</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="6">1/B28</f>
+        <v>2.5647601949217745E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>65.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.64</v>
+      </c>
+      <c r="B29">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C30" si="7">1/B29</f>
+        <v>2.6932399676811204E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>70.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.68</v>
+      </c>
+      <c r="B30">
+        <v>35.68</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>2.8026905829596414E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>75.94</v>
       </c>
     </row>
   </sheetData>

--- a/Calibration Data.xlsx
+++ b/Calibration Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Allegion\Allegion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Allegion\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="11190" windowHeight="9195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Actual Force</t>
   </si>
@@ -40,13 +40,39 @@
   <si>
     <t>New Calibration</t>
   </si>
+  <si>
+    <t>Calibration 4/6/17</t>
+  </si>
+  <si>
+    <t>Force Sensor 1</t>
+  </si>
+  <si>
+    <t>Actual Force lb</t>
+  </si>
+  <si>
+    <t>Force Sensor 2</t>
+  </si>
+  <si>
+    <t>Force Sensor 3</t>
+  </si>
+  <si>
+    <t>Force Sensor 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,11 +329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196479288"/>
-        <c:axId val="196476544"/>
+        <c:axId val="379455440"/>
+        <c:axId val="379458576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196479288"/>
+        <c:axId val="379455440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,12 +446,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196476544"/>
+        <c:crossAx val="379458576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196476544"/>
+        <c:axId val="379458576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196479288"/>
+        <c:crossAx val="379455440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -601,6 +628,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>New</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Calibration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -679,7 +736,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11914457567804025"/>
+                  <c:x val="-0.19414457567804025"/>
                   <c:y val="-4.1666666666666669E-4"/>
                 </c:manualLayout>
               </c:layout>
@@ -843,11 +900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456376344"/>
-        <c:axId val="456375952"/>
+        <c:axId val="379455832"/>
+        <c:axId val="379456224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456376344"/>
+        <c:axId val="379455832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,12 +1017,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456375952"/>
+        <c:crossAx val="379456224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456375952"/>
+        <c:axId val="379456224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1135,2306 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456376344"/>
+        <c:crossAx val="379455832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force Sensor 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13949759405074361"/>
+                  <c:y val="-5.9374817731116941E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4516129032258064E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1689248342852382E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6376689834262582E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0217635639113109E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2733987011333249E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5012760846719712E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7427675148135237E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8978933383943825E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0267531414673693E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1867483052700636E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2789425706472195E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4795437639474338E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5766555011594947E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6274303730951128E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6795284030010719E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8457598178713715E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.783999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386168264"/>
+        <c:axId val="386171400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386168264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386171400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386171400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force (lb)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386168264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sensor 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17525634295713036"/>
+                  <c:y val="-5.6047681539807527E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.232697579216121E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6142488002953123E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9157761418507094E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0750376263169211E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2733987011333249E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5629884338855895E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.77999288002848E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0088388911209322E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.147766323024055E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2999080036798531E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4102193299590263E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8169014084507043E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9342723004694836E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0432136335970784E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1585596967782688E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.783999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="190306928"/>
+        <c:axId val="190308496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="190306928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190308496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190308496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (lb)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190306928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force Sensor 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15413867016622923"/>
+                  <c:y val="-1.3278288130650335E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$79:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.871668311944718E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2948896696596218E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7863673185973852E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6777315397270879E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3144058885383806E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6162922256343949E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9062142584826535E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.247696111485727E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4443901246638967E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6932399676811204E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8312570781426953E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.012048192771084E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2268473701193935E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35345405767941E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4281796366129581E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3715441672285906E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6075036075036079E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$79:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.783999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83964128"/>
+        <c:axId val="83966872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83964128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83966872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83966872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (lb)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83964128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sensor 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14045472440944881"/>
+                  <c:y val="2.0785943423738697E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$99:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.871668311944718E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1782695290629907E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6420672534416606E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7876088871488697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2886597938144331E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5898251192368838E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8900018900018901E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2070183182520412E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4679170779861793E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6795284030010719E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8752156411730879E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0275507114744173E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2981530343007916E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4867503486750349E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6284470246734396E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8022813688212927E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.918495297805643E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$99:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.783999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83966480"/>
+        <c:axId val="83966088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83966480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83966088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83966088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (lb)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83966480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1207,6 +3563,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1724,6 +4240,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2296,6 +6876,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2567,17 +7267,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D30"/>
+    <sheetView tabSelected="1" topLeftCell="G70" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2633,7 +7333,7 @@
         <v>360</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:C9" si="0">1/B4</f>
+        <f t="shared" ref="C4:C9" si="0">1/B4</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="D4">
@@ -2778,11 +7478,11 @@
         <v>221.7</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C21" si="2">1/B16</f>
+        <f>1/B16</f>
         <v>4.5105999097880024E-3</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D30" si="3">D15+5</f>
+        <f t="shared" ref="D16:D30" si="2">D15+5</f>
         <v>5.9399999999999995</v>
       </c>
     </row>
@@ -2794,11 +7494,11 @@
         <v>140.69999999999999</v>
       </c>
       <c r="C17">
+        <f t="shared" ref="C16:C21" si="3">1/B17</f>
+        <v>7.1073205401563618E-3</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="2"/>
-        <v>7.1073205401563618E-3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
         <v>10.94</v>
       </c>
     </row>
@@ -2810,11 +7510,11 @@
         <v>106.25</v>
       </c>
       <c r="C18">
+        <f t="shared" si="3"/>
+        <v>9.4117647058823521E-3</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="2"/>
-        <v>9.4117647058823521E-3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
         <v>15.94</v>
       </c>
     </row>
@@ -2826,11 +7526,11 @@
         <v>86.68</v>
       </c>
       <c r="C19">
+        <f t="shared" si="3"/>
+        <v>1.1536686663590217E-2</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="2"/>
-        <v>1.1536686663590217E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
         <v>20.939999999999998</v>
       </c>
     </row>
@@ -2842,11 +7542,11 @@
         <v>74.569999999999993</v>
       </c>
       <c r="C20">
+        <f t="shared" si="3"/>
+        <v>1.3410218586562963E-2</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="2"/>
-        <v>1.3410218586562963E-2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
         <v>25.939999999999998</v>
       </c>
     </row>
@@ -2858,11 +7558,11 @@
         <v>63.42</v>
       </c>
       <c r="C21">
+        <f t="shared" si="3"/>
+        <v>1.5767896562598548E-2</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="2"/>
-        <v>1.5767896562598548E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
         <v>30.939999999999998</v>
       </c>
     </row>
@@ -2878,7 +7578,7 @@
         <v>1.7427675148135237E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35.94</v>
       </c>
     </row>
@@ -2894,7 +7594,7 @@
         <v>1.9062142584826535E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40.94</v>
       </c>
     </row>
@@ -2910,7 +7610,7 @@
         <v>2.0354162426216162E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.94</v>
       </c>
     </row>
@@ -2926,7 +7626,7 @@
         <v>2.2070183182520412E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50.94</v>
       </c>
     </row>
@@ -2942,7 +7642,7 @@
         <v>2.3212627669452184E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55.94</v>
       </c>
     </row>
@@ -2958,7 +7658,7 @@
         <v>2.4557956777996073E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60.94</v>
       </c>
     </row>
@@ -2974,7 +7674,7 @@
         <v>2.5647601949217745E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65.94</v>
       </c>
     </row>
@@ -2990,7 +7690,7 @@
         <v>2.6932399676811204E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70.94</v>
       </c>
     </row>
@@ -3006,12 +7706,958 @@
         <v>2.8026905829596414E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>75.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>200000</v>
+      </c>
+      <c r="B39">
+        <f>1/A39</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1550</v>
+      </c>
+      <c r="B40">
+        <f>1/A40</f>
+        <v>6.4516129032258064E-4</v>
+      </c>
+      <c r="C40">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>239.87</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B55" si="8">1/A41</f>
+        <v>4.1689248342852382E-3</v>
+      </c>
+      <c r="C41">
+        <f>C40+5</f>
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>130.93</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="8"/>
+        <v>7.6376689834262582E-3</v>
+      </c>
+      <c r="C42">
+        <f>C41+5</f>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>97.87</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="8"/>
+        <v>1.0217635639113109E-2</v>
+      </c>
+      <c r="C43">
+        <f>C42+5</f>
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>78.53</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="8"/>
+        <v>1.2733987011333249E-2</v>
+      </c>
+      <c r="C44">
+        <f>C43+5</f>
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>66.61</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="8"/>
+        <v>1.5012760846719712E-2</v>
+      </c>
+      <c r="C45">
+        <f>C44+5</f>
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>57.38</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="8"/>
+        <v>1.7427675148135237E-2</v>
+      </c>
+      <c r="C46">
+        <f>C45+5.289</f>
+        <v>31.579000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>52.69</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="8"/>
+        <v>1.8978933383943825E-2</v>
+      </c>
+      <c r="C47">
+        <f>C46+5</f>
+        <v>36.579000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>49.34</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="8"/>
+        <v>2.0267531414673693E-2</v>
+      </c>
+      <c r="C48">
+        <f>C47+5</f>
+        <v>41.579000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45.73</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="8"/>
+        <v>2.1867483052700636E-2</v>
+      </c>
+      <c r="C49">
+        <f>C48+5</f>
+        <v>46.579000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43.88</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="8"/>
+        <v>2.2789425706472195E-2</v>
+      </c>
+      <c r="C50">
+        <f>C49+5</f>
+        <v>51.579000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>40.33</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="8"/>
+        <v>2.4795437639474338E-2</v>
+      </c>
+      <c r="C51">
+        <f>C50+5.205</f>
+        <v>56.783999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>38.81</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="8"/>
+        <v>2.5766555011594947E-2</v>
+      </c>
+      <c r="C52">
+        <f>C51+5</f>
+        <v>61.783999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>38.06</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="8"/>
+        <v>2.6274303730951128E-2</v>
+      </c>
+      <c r="C53">
+        <f>C52+5</f>
+        <v>66.783999999999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>37.32</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="8"/>
+        <v>2.6795284030010719E-2</v>
+      </c>
+      <c r="C54">
+        <f>C53+5</f>
+        <v>71.783999999999992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>35.14</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="8"/>
+        <v>2.8457598178713715E-2</v>
+      </c>
+      <c r="C55">
+        <f>C54+5</f>
+        <v>76.783999999999992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>200000</v>
+      </c>
+      <c r="B59">
+        <f>1/A59</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1382.61</v>
+      </c>
+      <c r="B60">
+        <f>1/A60</f>
+        <v>7.232697579216121E-4</v>
+      </c>
+      <c r="C60">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>216.72</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B75" si="9">1/A61</f>
+        <v>4.6142488002953123E-3</v>
+      </c>
+      <c r="C61">
+        <f>C60+5</f>
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>126.33</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="9"/>
+        <v>7.9157761418507094E-3</v>
+      </c>
+      <c r="C62">
+        <f>C61+5</f>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>93.02</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="9"/>
+        <v>1.0750376263169211E-2</v>
+      </c>
+      <c r="C63">
+        <f>C62+5</f>
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>78.53</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="9"/>
+        <v>1.2733987011333249E-2</v>
+      </c>
+      <c r="C64">
+        <f>C63+5</f>
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63.98</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="9"/>
+        <v>1.5629884338855895E-2</v>
+      </c>
+      <c r="C65">
+        <f>C64+5</f>
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>56.18</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="9"/>
+        <v>1.77999288002848E-2</v>
+      </c>
+      <c r="C66">
+        <f>C65+5.289</f>
+        <v>31.579000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>49.78</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="9"/>
+        <v>2.0088388911209322E-2</v>
+      </c>
+      <c r="C67">
+        <f>C66+5</f>
+        <v>36.579000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>46.56</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="9"/>
+        <v>2.147766323024055E-2</v>
+      </c>
+      <c r="C68">
+        <f>C67+5</f>
+        <v>41.579000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>43.48</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="9"/>
+        <v>2.2999080036798531E-2</v>
+      </c>
+      <c r="C69">
+        <f>C68+5</f>
+        <v>46.579000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>41.49</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="9"/>
+        <v>2.4102193299590263E-2</v>
+      </c>
+      <c r="C70">
+        <f>C69+5</f>
+        <v>51.579000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>37.5</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="9"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="C71">
+        <f>C70+5.205</f>
+        <v>56.783999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>35.5</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="9"/>
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="C72">
+        <f>C71+5</f>
+        <v>61.783999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>34.08</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="9"/>
+        <v>2.9342723004694836E-2</v>
+      </c>
+      <c r="C73">
+        <f>C72+5</f>
+        <v>66.783999999999992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32.86</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="9"/>
+        <v>3.0432136335970784E-2</v>
+      </c>
+      <c r="C74">
+        <f>C73+5</f>
+        <v>71.783999999999992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>31.66</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="9"/>
+        <v>3.1585596967782688E-2</v>
+      </c>
+      <c r="C75">
+        <f>C74+5</f>
+        <v>76.783999999999992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10130</v>
+      </c>
+      <c r="B79">
+        <f>1/A79</f>
+        <v>9.871668311944718E-5</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1075.8599999999999</v>
+      </c>
+      <c r="B80">
+        <f>1/A80</f>
+        <v>9.2948896696596218E-4</v>
+      </c>
+      <c r="C80">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>172.82</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:B95" si="10">1/A81</f>
+        <v>5.7863673185973852E-3</v>
+      </c>
+      <c r="C81">
+        <f>C80+5</f>
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>103.33</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="10"/>
+        <v>9.6777315397270879E-3</v>
+      </c>
+      <c r="C82">
+        <f>C81+5</f>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>76.08</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="10"/>
+        <v>1.3144058885383806E-2</v>
+      </c>
+      <c r="C83">
+        <f>C82+5</f>
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>61.87</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="10"/>
+        <v>1.6162922256343949E-2</v>
+      </c>
+      <c r="C84">
+        <f>C83+5</f>
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>52.46</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>1.9062142584826535E-2</v>
+      </c>
+      <c r="C85">
+        <f>C84+5</f>
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>44.49</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="10"/>
+        <v>2.247696111485727E-2</v>
+      </c>
+      <c r="C86">
+        <f>C85+5.289</f>
+        <v>31.579000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="10"/>
+        <v>2.4443901246638967E-2</v>
+      </c>
+      <c r="C87">
+        <f>C86+5</f>
+        <v>36.579000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="10"/>
+        <v>2.6932399676811204E-2</v>
+      </c>
+      <c r="C88">
+        <f>C87+5</f>
+        <v>41.579000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>35.32</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="10"/>
+        <v>2.8312570781426953E-2</v>
+      </c>
+      <c r="C89">
+        <f>C88+5</f>
+        <v>46.579000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="10"/>
+        <v>3.012048192771084E-2</v>
+      </c>
+      <c r="C90">
+        <f>C89+5</f>
+        <v>51.579000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30.99</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="10"/>
+        <v>3.2268473701193935E-2</v>
+      </c>
+      <c r="C91">
+        <f>C90+5.205</f>
+        <v>56.783999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>29.82</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="10"/>
+        <v>3.35345405767941E-2</v>
+      </c>
+      <c r="C92">
+        <f>C91+5</f>
+        <v>61.783999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>29.17</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="10"/>
+        <v>3.4281796366129581E-2</v>
+      </c>
+      <c r="C93">
+        <f>C92+5</f>
+        <v>66.783999999999992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>29.66</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="10"/>
+        <v>3.3715441672285906E-2</v>
+      </c>
+      <c r="C94">
+        <f>C93+5</f>
+        <v>71.783999999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>27.72</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="10"/>
+        <v>3.6075036075036079E-2</v>
+      </c>
+      <c r="C95">
+        <f>C94+5</f>
+        <v>76.783999999999992</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>10130</v>
+      </c>
+      <c r="B99">
+        <f>1/A99</f>
+        <v>9.871668311944718E-5</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1089.53</v>
+      </c>
+      <c r="B100">
+        <f>1/A100</f>
+        <v>9.1782695290629907E-4</v>
+      </c>
+      <c r="C100">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>177.24</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101:B115" si="11">1/A101</f>
+        <v>5.6420672534416606E-3</v>
+      </c>
+      <c r="C101">
+        <f>C100+5</f>
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102.17</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="11"/>
+        <v>9.7876088871488697E-3</v>
+      </c>
+      <c r="C102">
+        <f>C101+5</f>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="11"/>
+        <v>1.2886597938144331E-2</v>
+      </c>
+      <c r="C103">
+        <f>C102+5</f>
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>62.9</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="11"/>
+        <v>1.5898251192368838E-2</v>
+      </c>
+      <c r="C104">
+        <f>C103+5</f>
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>52.91</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="11"/>
+        <v>1.8900018900018901E-2</v>
+      </c>
+      <c r="C105">
+        <f>C104+5</f>
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>45.31</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="11"/>
+        <v>2.2070183182520412E-2</v>
+      </c>
+      <c r="C106">
+        <f>C105+5.289</f>
+        <v>31.579000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="11"/>
+        <v>2.4679170779861793E-2</v>
+      </c>
+      <c r="C107">
+        <f>C106+5</f>
+        <v>36.579000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>37.32</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="11"/>
+        <v>2.6795284030010719E-2</v>
+      </c>
+      <c r="C108">
+        <f>C107+5</f>
+        <v>41.579000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>34.78</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="11"/>
+        <v>2.8752156411730879E-2</v>
+      </c>
+      <c r="C109">
+        <f>C108+5</f>
+        <v>46.579000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>33.03</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="11"/>
+        <v>3.0275507114744173E-2</v>
+      </c>
+      <c r="C110">
+        <f>C109+5</f>
+        <v>51.579000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>30.32</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="11"/>
+        <v>3.2981530343007916E-2</v>
+      </c>
+      <c r="C111">
+        <f>C110+5.205</f>
+        <v>56.783999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>28.68</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="11"/>
+        <v>3.4867503486750349E-2</v>
+      </c>
+      <c r="C112">
+        <f>C111+5</f>
+        <v>61.783999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>27.56</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="11"/>
+        <v>3.6284470246734396E-2</v>
+      </c>
+      <c r="C113">
+        <f>C112+5</f>
+        <v>66.783999999999992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>26.3</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="11"/>
+        <v>3.8022813688212927E-2</v>
+      </c>
+      <c r="C114">
+        <f>C113+5</f>
+        <v>71.783999999999992</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>25.52</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="11"/>
+        <v>3.918495297805643E-2</v>
+      </c>
+      <c r="C115">
+        <f>C114+5</f>
+        <v>76.783999999999992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Calibration Data.xlsx
+++ b/Calibration Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Actual Force</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Force Sensor 4</t>
+  </si>
+  <si>
+    <t>Calibration 4/27/17</t>
   </si>
 </sst>
 </file>
@@ -329,11 +332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379455440"/>
-        <c:axId val="379458576"/>
+        <c:axId val="395436648"/>
+        <c:axId val="395437040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379455440"/>
+        <c:axId val="395436648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -446,12 +448,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379458576"/>
+        <c:crossAx val="395437040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379458576"/>
+        <c:axId val="395437040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +499,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -564,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379455440"/>
+        <c:crossAx val="395436648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -613,7 +614,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -648,11 +649,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>New</a:t>
+              <a:t>Force</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Calibration</a:t>
+              <a:t> Sensor 4</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -736,8 +737,472 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19414457567804025"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-0.21906167979002625"/>
+                  <c:y val="3.9949693788276466E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$217:$B$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.1331444759206799E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.387512938558152E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.387512938558152E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.387512938558152E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4880952380952382E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.689859995099406E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1978021978021978E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3333333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6019328117809482E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4516129032258064E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4626865671641792E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0482180293501049E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1682242990654205E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3422818791946308E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4306151645207439E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5873015873015873E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7331022530329288E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9230769230769232E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1786492374727671E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6496350364963502E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7619047619047623E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4074074074074077E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8495575221238937E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5238095238095247E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$217:$C$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2399999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463015800"/>
+        <c:axId val="463021680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463015800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463021680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463021680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463015800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28600124406414518"/>
+                  <c:y val="0.29949298087835613"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -900,11 +1365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379455832"/>
-        <c:axId val="379456224"/>
+        <c:axId val="395437824"/>
+        <c:axId val="395439000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379455832"/>
+        <c:axId val="395437824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1415,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1017,12 +1481,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379456224"/>
+        <c:crossAx val="395439000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379456224"/>
+        <c:axId val="395439000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1532,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1135,7 +1598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379455832"/>
+        <c:crossAx val="395437824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1224,7 +1687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1466,11 +1928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386168264"/>
-        <c:axId val="386171400"/>
+        <c:axId val="463016192"/>
+        <c:axId val="463017368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386168264"/>
+        <c:axId val="463016192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1583,12 +2044,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386171400"/>
+        <c:crossAx val="463017368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386171400"/>
+        <c:axId val="463017368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +2095,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1701,7 +2161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386168264"/>
+        <c:crossAx val="463016192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2037,11 +2497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190306928"/>
-        <c:axId val="190308496"/>
+        <c:axId val="463012664"/>
+        <c:axId val="463016584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190306928"/>
+        <c:axId val="463012664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,12 +2619,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190308496"/>
+        <c:crossAx val="463016584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190308496"/>
+        <c:axId val="463016584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190306928"/>
+        <c:crossAx val="463012664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2613,11 +3073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83964128"/>
-        <c:axId val="83966872"/>
+        <c:axId val="463019328"/>
+        <c:axId val="463014232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83964128"/>
+        <c:axId val="463019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,12 +3195,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83966872"/>
+        <c:crossAx val="463014232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83966872"/>
+        <c:axId val="463014232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,7 +3318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83964128"/>
+        <c:crossAx val="463019328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3194,11 +3654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83966480"/>
-        <c:axId val="83966088"/>
+        <c:axId val="463013056"/>
+        <c:axId val="463022856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83966480"/>
+        <c:axId val="463013056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,12 +3771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83966088"/>
+        <c:crossAx val="463022856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83966088"/>
+        <c:axId val="463022856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3894,1587 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83966480"/>
+        <c:crossAx val="463013056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sensor 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24927121609798775"/>
+                  <c:y val="4.1694006999125108E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$121:$B$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>4.2813534214435864E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9230769230769228E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5624979492193906E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4579557743222589E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7639086879259499E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1437852428827964E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2913890180277906E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4301650410457366E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5724012138937371E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7451093310995934E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8539804961251807E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9649067651739925E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0636853292609943E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1930786438001666E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.370005214011471E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.475615190374808E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6140373807345446E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7397260273972603E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9329813755682652E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0651340996168583E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2170891777120064E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9753528125621145E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1554364076919108E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.447037586229127E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3991264908449513E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5978500815817255E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0792143319663286E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2000480019200769E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.283532280836863E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$121:$C$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463015016"/>
+        <c:axId val="463011880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463015016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463011880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463011880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463015016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sensor 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21751290463692038"/>
+                  <c:y val="-7.8843321668124813E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$153:$B$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>6.0010357787754166E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1225071225071229E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9456640366414406E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0714323979728498E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.278935925310142E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5462642256308758E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.758612806218455E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9929846938775511E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2661862351848077E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4150505953099716E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.583044893320246E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7397260273972603E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8841716658975542E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0651340996168583E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3202735905438607E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4904013961605585E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6603221083455345E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8806317668516437E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1103210160713553E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3882745304546257E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7142857142857143E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4277649855158589E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6153846153846159E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1627906976744186E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1904761904761904E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3092432573972244E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4240956992309883E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.507386192342478E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$153:$C$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463012272"/>
+        <c:axId val="463017760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463012272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463017760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463017760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463012272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sensor 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5148293963254595E-2"/>
+                  <c:y val="-3.6410032079323418E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$185:$B$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>7.347538574577516E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1806375442739079E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4064697609001407E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6806722689075631E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9120458891013384E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.136752136752137E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3255813953488372E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4509803921568627E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.631578947368421E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7397260273972603E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9069767441860465E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.003003003003003E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3112582781456954E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5714285714285713E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6764705882352941E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.787878787878788E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5248618784530384E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2893081761006293E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.246376811594203E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.874015748031496E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4745762711864406E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0090090090090089E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.6153846153846159E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$185:$C$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3300000000000018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2900000000000027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7600000000000033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463015408"/>
+        <c:axId val="463016976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463015408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463016976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463016976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463015408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3484,6 +5524,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3723,6 +5803,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4239,7 +6439,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4755,7 +6955,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5271,7 +7471,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5787,7 +7987,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6303,7 +8503,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6819,20 +9019,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6853,16 +11117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7001,6 +11265,126 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7267,10 +11651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G70" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7494,7 +11878,7 @@
         <v>140.69999999999999</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C16:C21" si="3">1/B17</f>
+        <f t="shared" ref="C17:C21" si="3">1/B17</f>
         <v>7.1073205401563618E-3</v>
       </c>
       <c r="D17">
@@ -8653,6 +13037,1533 @@
       <c r="C115">
         <f>C114+5</f>
         <v>76.783999999999992</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2335.71</v>
+      </c>
+      <c r="B121">
+        <f>1/A121</f>
+        <v>4.2813534214435864E-4</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2031.25</v>
+      </c>
+      <c r="B122">
+        <f>1/A122</f>
+        <v>4.9230769230769228E-4</v>
+      </c>
+      <c r="C122">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1523.81</v>
+      </c>
+      <c r="B123">
+        <f>1/A123</f>
+        <v>6.5624979492193906E-4</v>
+      </c>
+      <c r="C123">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1340.85</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124:B137" si="12">1/A124</f>
+        <v>7.4579557743222589E-4</v>
+      </c>
+      <c r="C124">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1024.18</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="12"/>
+        <v>9.7639086879259499E-4</v>
+      </c>
+      <c r="C125">
+        <f>C124+0.48</f>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>874.29</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="12"/>
+        <v>1.1437852428827964E-3</v>
+      </c>
+      <c r="C126">
+        <f>C125+0.48</f>
+        <v>2.4699999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>774.36</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="12"/>
+        <v>1.2913890180277906E-3</v>
+      </c>
+      <c r="C127">
+        <f>C126+0.47</f>
+        <v>2.9399999999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>699.22</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="12"/>
+        <v>1.4301650410457366E-3</v>
+      </c>
+      <c r="C128">
+        <f>C127+0.49</f>
+        <v>3.4299999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>635.97</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="12"/>
+        <v>1.5724012138937371E-3</v>
+      </c>
+      <c r="C129">
+        <f>C128+0.5</f>
+        <v>3.9299999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>573.03</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="12"/>
+        <v>1.7451093310995934E-3</v>
+      </c>
+      <c r="C130">
+        <f>C129+0.49</f>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>539.38</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="12"/>
+        <v>1.8539804961251807E-3</v>
+      </c>
+      <c r="C131">
+        <f>C130+0.49</f>
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>508.93</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="12"/>
+        <v>1.9649067651739925E-3</v>
+      </c>
+      <c r="C132">
+        <f>C131+0.5</f>
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>484.57</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="12"/>
+        <v>2.0636853292609943E-3</v>
+      </c>
+      <c r="C133">
+        <f>C132+0.49</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>455.98</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="12"/>
+        <v>2.1930786438001666E-3</v>
+      </c>
+      <c r="C134">
+        <f>C133+0.49</f>
+        <v>6.3900000000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>421.94</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="12"/>
+        <v>2.370005214011471E-3</v>
+      </c>
+      <c r="C135">
+        <f>C134+0.55</f>
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>403.94</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="12"/>
+        <v>2.475615190374808E-3</v>
+      </c>
+      <c r="C136">
+        <f>C135+0.5</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>382.55</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="12"/>
+        <v>2.6140373807345446E-3</v>
+      </c>
+      <c r="C137">
+        <f>C136+0.49</f>
+        <v>7.9300000000000006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>365</v>
+      </c>
+      <c r="B138">
+        <f>1/A138</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="C138">
+        <f>C137+0.5</f>
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>340.95</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ref="B139:B142" si="13">1/A139</f>
+        <v>2.9329813755682652E-3</v>
+      </c>
+      <c r="C139">
+        <f>C138+0.5</f>
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>326.25</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="13"/>
+        <v>3.0651340996168583E-3</v>
+      </c>
+      <c r="C140">
+        <f>C139+0.49</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>310.83999999999997</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="13"/>
+        <v>3.2170891777120064E-3</v>
+      </c>
+      <c r="C141">
+        <f>C140+0.5</f>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>251.55</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="13"/>
+        <v>3.9753528125621145E-3</v>
+      </c>
+      <c r="C142">
+        <f>C141+5</f>
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>193.97</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ref="B143:B147" si="14">1/A143</f>
+        <v>5.1554364076919108E-3</v>
+      </c>
+      <c r="C143">
+        <f>C142+5</f>
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>155.11000000000001</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="14"/>
+        <v>6.447037586229127E-3</v>
+      </c>
+      <c r="C144">
+        <f>C143+5</f>
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>119.06</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="14"/>
+        <v>8.3991264908449513E-3</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ref="C145:C147" si="15">C144+5</f>
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>104.19</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="14"/>
+        <v>9.5978500815817255E-3</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="15"/>
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>92.66</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="14"/>
+        <v>1.0792143319663286E-2</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="15"/>
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>83.33</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ref="B148:B149" si="16">1/A148</f>
+        <v>1.2000480019200769E-2</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:C149" si="17">C147+5</f>
+        <v>44.92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>77.91</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="16"/>
+        <v>1.283532280836863E-2</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="17"/>
+        <v>49.92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>16663.79</v>
+      </c>
+      <c r="B153">
+        <f>1/A153</f>
+        <v>6.0010357787754166E-5</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1404</v>
+      </c>
+      <c r="B154">
+        <f>1/A154</f>
+        <v>7.1225071225071229E-4</v>
+      </c>
+      <c r="C154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1117.8599999999999</v>
+      </c>
+      <c r="B155">
+        <f>1/A155</f>
+        <v>8.9456640366414406E-4</v>
+      </c>
+      <c r="C155">
+        <f>C154+0.97</f>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>933.33</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ref="B156:B162" si="18">1/A156</f>
+        <v>1.0714323979728498E-3</v>
+      </c>
+      <c r="C156">
+        <f>C155+0.42</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>781.9</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="18"/>
+        <v>1.278935925310142E-3</v>
+      </c>
+      <c r="C157">
+        <f>C156+0.49</f>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>646.72</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="18"/>
+        <v>1.5462642256308758E-3</v>
+      </c>
+      <c r="C158">
+        <f>C157+0.5</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>568.63</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="18"/>
+        <v>1.758612806218455E-3</v>
+      </c>
+      <c r="C159">
+        <f>C158+0.49</f>
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>501.76</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="18"/>
+        <v>1.9929846938775511E-3</v>
+      </c>
+      <c r="C160">
+        <f>C159+0.48</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>441.27</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="18"/>
+        <v>2.2661862351848077E-3</v>
+      </c>
+      <c r="C161">
+        <f>C160+0.48</f>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>414.07</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="18"/>
+        <v>2.4150505953099716E-3</v>
+      </c>
+      <c r="C162">
+        <f>C161+0.5</f>
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>387.14</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ref="B163:B178" si="19">1/A163</f>
+        <v>2.583044893320246E-3</v>
+      </c>
+      <c r="C163">
+        <f>C162+0.5</f>
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>365</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="19"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="C164">
+        <f>C163+0.49</f>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>346.72</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="19"/>
+        <v>2.8841716658975542E-3</v>
+      </c>
+      <c r="C165">
+        <f>C164+0.48</f>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>326.25</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="19"/>
+        <v>3.0651340996168583E-3</v>
+      </c>
+      <c r="C166">
+        <f>C165+0.49</f>
+        <v>6.7900000000000009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>301.18</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="19"/>
+        <v>3.3202735905438607E-3</v>
+      </c>
+      <c r="C167">
+        <f>C166+0.53</f>
+        <v>7.3200000000000012</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>286.5</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="19"/>
+        <v>3.4904013961605585E-3</v>
+      </c>
+      <c r="C168">
+        <f>C167+0.47</f>
+        <v>7.7900000000000009</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>273.2</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="19"/>
+        <v>3.6603221083455345E-3</v>
+      </c>
+      <c r="C169">
+        <f>C168+0.5</f>
+        <v>8.2900000000000009</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>257.69</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="19"/>
+        <v>3.8806317668516437E-3</v>
+      </c>
+      <c r="C170">
+        <f>C169+0.47</f>
+        <v>8.7600000000000016</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>243.29</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="19"/>
+        <v>4.1103210160713553E-3</v>
+      </c>
+      <c r="C171">
+        <f>C170+0.5</f>
+        <v>9.2600000000000016</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>227.88</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="19"/>
+        <v>4.3882745304546257E-3</v>
+      </c>
+      <c r="C172">
+        <f>C171+0.49</f>
+        <v>9.7500000000000018</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="19"/>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="C173">
+        <f>15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>134.63</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="19"/>
+        <v>7.4277649855158589E-3</v>
+      </c>
+      <c r="C174">
+        <f>C173+5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>104</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="19"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="C175">
+        <f>C174+5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>86</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="19"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ref="C176:C178" si="20">C175+5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>84</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="19"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="20"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>76.38</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="19"/>
+        <v>1.3092432573972244E-2</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>70.22</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ref="B179:B180" si="21">1/A179</f>
+        <v>1.4240956992309883E-2</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ref="C179:C180" si="22">C178+5</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>66.34</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="21"/>
+        <v>1.507386192342478E-2</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1361</v>
+      </c>
+      <c r="B185">
+        <f>1/A185</f>
+        <v>7.347538574577516E-4</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1024</v>
+      </c>
+      <c r="B186">
+        <f>1/A186</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="C186">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>847</v>
+      </c>
+      <c r="B187">
+        <f>1/A187</f>
+        <v>1.1806375442739079E-3</v>
+      </c>
+      <c r="C187">
+        <f>C186+0.97</f>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>711</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ref="B188:B193" si="23">1/A188</f>
+        <v>1.4064697609001407E-3</v>
+      </c>
+      <c r="C188">
+        <f>C187+0.42</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>595</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="23"/>
+        <v>1.6806722689075631E-3</v>
+      </c>
+      <c r="C189">
+        <f>C188+0.5</f>
+        <v>2.3899999999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>523</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="23"/>
+        <v>1.9120458891013384E-3</v>
+      </c>
+      <c r="C190">
+        <f>C189+0.49</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>468</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="23"/>
+        <v>2.136752136752137E-3</v>
+      </c>
+      <c r="C191">
+        <f>C190+0.5</f>
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>430</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="23"/>
+        <v>2.3255813953488372E-3</v>
+      </c>
+      <c r="C192">
+        <f>C191+0.49</f>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>408</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="23"/>
+        <v>2.4509803921568627E-3</v>
+      </c>
+      <c r="C193">
+        <f>C192+0.49</f>
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>380</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ref="B194:B204" si="24">1/A194</f>
+        <v>2.631578947368421E-3</v>
+      </c>
+      <c r="C194">
+        <f>C193+0.48</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>365</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="24"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="C195">
+        <f>C194+0.5</f>
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>344</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="24"/>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="C196">
+        <f>C195+0.48</f>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>333</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="24"/>
+        <v>3.003003003003003E-3</v>
+      </c>
+      <c r="C197">
+        <f>C196+0.48</f>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>320</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="24"/>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="C198">
+        <f>C197+0.49</f>
+        <v>6.7900000000000009</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>302</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="24"/>
+        <v>3.3112582781456954E-3</v>
+      </c>
+      <c r="C199">
+        <f>C198+0.55</f>
+        <v>7.3400000000000007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>288</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="24"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C200">
+        <f>C199+0.49</f>
+        <v>7.830000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>280</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="24"/>
+        <v>3.5714285714285713E-3</v>
+      </c>
+      <c r="C201">
+        <f>C200+0.5</f>
+        <v>8.3300000000000018</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>272</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="24"/>
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="C202">
+        <f>C201+0.47</f>
+        <v>8.8000000000000025</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>264</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="24"/>
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="C203">
+        <f>C202+0.49</f>
+        <v>9.2900000000000027</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>256</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="24"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="C204">
+        <f>C203+0.47</f>
+        <v>9.7600000000000033</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>200</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ref="B205:B206" si="25">1/A205</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C205">
+        <f>15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>181</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="25"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+      <c r="C206">
+        <f>C205+5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>159</v>
+      </c>
+      <c r="B207">
+        <f t="shared" ref="B207:B212" si="26">1/A207</f>
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="C207">
+        <f t="shared" ref="C207:C212" si="27">C206+5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>138</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="26"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>127</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="26"/>
+        <v>7.874015748031496E-3</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="27"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>118</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="26"/>
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>111</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="26"/>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>104</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="26"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>8825</v>
+      </c>
+      <c r="B217">
+        <f>1/A217</f>
+        <v>1.1331444759206799E-4</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>7207.14</v>
+      </c>
+      <c r="B218">
+        <f>1/A218</f>
+        <v>1.387512938558152E-4</v>
+      </c>
+      <c r="C218">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>7207.14</v>
+      </c>
+      <c r="B219">
+        <f>1/A219</f>
+        <v>1.387512938558152E-4</v>
+      </c>
+      <c r="C219">
+        <f>C218+0.97</f>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>7207.14</v>
+      </c>
+      <c r="B220">
+        <f t="shared" ref="B220:B227" si="28">1/A220</f>
+        <v>1.387512938558152E-4</v>
+      </c>
+      <c r="C220">
+        <f>C219+0.42</f>
+        <v>1.8699999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>6720</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="28"/>
+        <v>1.4880952380952382E-4</v>
+      </c>
+      <c r="C221">
+        <f>C220+0.48</f>
+        <v>2.3499999999999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5917.65</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="28"/>
+        <v>1.689859995099406E-4</v>
+      </c>
+      <c r="C222">
+        <f>C221+0.48</f>
+        <v>2.8299999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4550</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="28"/>
+        <v>2.1978021978021978E-4</v>
+      </c>
+      <c r="C223">
+        <f>C222+0.48</f>
+        <v>3.3099999999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>3000</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="28"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="C224">
+        <f>C223+0.47</f>
+        <v>3.7799999999999994</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2173</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="28"/>
+        <v>4.6019328117809482E-4</v>
+      </c>
+      <c r="C225">
+        <f>C224+0.5</f>
+        <v>4.2799999999999994</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1550</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="28"/>
+        <v>6.4516129032258064E-4</v>
+      </c>
+      <c r="C226">
+        <f>C225+0.47</f>
+        <v>4.7499999999999991</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1340</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="28"/>
+        <v>7.4626865671641792E-4</v>
+      </c>
+      <c r="C227">
+        <f>C226+0.49</f>
+        <v>5.2399999999999993</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>954</v>
+      </c>
+      <c r="B228">
+        <f t="shared" ref="B228:B236" si="29">1/A228</f>
+        <v>1.0482180293501049E-3</v>
+      </c>
+      <c r="C228">
+        <f>C227+0.49</f>
+        <v>5.7299999999999995</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>856</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="29"/>
+        <v>1.1682242990654205E-3</v>
+      </c>
+      <c r="C229">
+        <f>C228+0.49</f>
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>745</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="29"/>
+        <v>1.3422818791946308E-3</v>
+      </c>
+      <c r="C230">
+        <f>C229+0.5</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>699</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="29"/>
+        <v>1.4306151645207439E-3</v>
+      </c>
+      <c r="C231">
+        <f>C230+0.52</f>
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>630</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="29"/>
+        <v>1.5873015873015873E-3</v>
+      </c>
+      <c r="C232">
+        <f>C231+0.49</f>
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>577</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="29"/>
+        <v>1.7331022530329288E-3</v>
+      </c>
+      <c r="C233">
+        <f>C232+0.5</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>520</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="29"/>
+        <v>1.9230769230769232E-3</v>
+      </c>
+      <c r="C234">
+        <f>C233+0.49</f>
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>501</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="29"/>
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="C235">
+        <f>C234+0.5</f>
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>459</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="29"/>
+        <v>2.1786492374727671E-3</v>
+      </c>
+      <c r="C236">
+        <f>C235+0.49</f>
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>274</v>
+      </c>
+      <c r="B237">
+        <f t="shared" ref="B237:B238" si="30">1/A237</f>
+        <v>3.6496350364963502E-3</v>
+      </c>
+      <c r="C237">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>210</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="30"/>
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="C238">
+        <f>C237+5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>180</v>
+      </c>
+      <c r="B239">
+        <f t="shared" ref="B239:B244" si="31">1/A239</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ref="C239:C244" si="32">C238+5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>150</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="31"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="32"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>135</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="31"/>
+        <v>7.4074074074074077E-3</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="32"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>125</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="31"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="32"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>113</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="31"/>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="32"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>105</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="31"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="32"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
